--- a/src/test/resources/data/sampledatafoodsales.xlsx
+++ b/src/test/resources/data/sampledatafoodsales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmetgul/IdeaProjects/SeleniumJava/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmetgul/IdeaProjects/e-commerce-testng-v1/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73569782-EF45-4049-8F2E-81C6D79D6A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDC811-F0D9-C24D-A8C8-194EB8F1C96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10360" yWindow="32060" windowWidth="26140" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,8 +554,8 @@
   <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1048573" sqref="A1048573"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
